--- a/MOEA/C2H_20.xlsx
+++ b/MOEA/C2H_20.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KernInternship\Geodata\County to Hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkern\Documents\GitHub\BETO\MOEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{046701FB-269E-4B78-A1A7-27A590F1DC2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{B8A3A5B0-B950-4E33-AA3B-3465C819A6E0}"/>
+    <workbookView xWindow="5190" yWindow="2420" windowWidth="21600" windowHeight="11390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3210,7 +3209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3555,16 +3554,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B600DDE-E59A-40F1-8A16-A4B9F409E613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1049"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1026" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3590,7 +3589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3616,7 +3615,7 @@
         <v>167.07361348430729</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>118.2246185525815</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>101.1029281060806</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>104.4170443125674</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3720,7 +3719,7 @@
         <v>52.804859414145653</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>74.134298025945313</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>100.1967873924757</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3798,7 +3797,7 @@
         <v>63.805027565317012</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>109.8561311483553</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>45.192469785411461</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>45.372761959429148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>55.349943614668881</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>97.898218254393683</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>140.13880052212949</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>79.531696367701116</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>82.817226113940748</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>87.609999001878634</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>66.570585220886244</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>74.877422422972302</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>30.259029424973448</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4135,7 @@
         <v>41.740713399347918</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>126.2425163247099</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>111.4176660256834</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>97.30379083019416</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4240,7 +4239,7 @@
         <v>48.938885037384139</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>7.2553381142768716</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>139.44390157684111</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>117.57230244414821</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>93.692870127224808</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>125.47463878695589</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4396,7 +4395,7 @@
         <v>83.564896608498543</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>91.683777452692951</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4448,7 +4447,7 @@
         <v>92.574051639938148</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>84.787846658825089</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4500,7 +4499,7 @@
         <v>107.2392063476956</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -4526,7 +4525,7 @@
         <v>98.616571807722437</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>65.684776231398985</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>133.01368036206529</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>147.37843824314839</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>147.3757115727044</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>100.5527110697689</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>130.47145278454059</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>129.18195411439461</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4734,7 +4733,7 @@
         <v>113.92226359198339</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4760,7 +4759,7 @@
         <v>172.9977614845636</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>50.36350379848232</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>147.29479736205229</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>77.197417802636366</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4864,7 +4863,7 @@
         <v>161.83183694406941</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>88.202362001257399</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>55.853574985177218</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -4942,7 +4941,7 @@
         <v>41.663233524992108</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>62.167857490627128</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>63.166268001146527</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>126.59291002003761</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -5046,7 +5045,7 @@
         <v>79.305310041727736</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>57.480209401886498</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>116.64604424451829</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>62.328914130509183</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>50.41545147660937</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>102.9059557321561</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>123.5497028629225</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>118.0321206357778</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -5254,7 +5253,7 @@
         <v>124.2169416086378</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>86.00095528132691</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5306,7 +5305,7 @@
         <v>159.2787109673817</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>132.1399464706802</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>119.90857401140531</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>168.86222251679951</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>72.806453411590581</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>72.965588760533819</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -5462,7 +5461,7 @@
         <v>95.699853961991934</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>30.04064740133753</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>99.689095628049273</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>116.6025585306722</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>133.5824682756045</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>104.9858369466741</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>96.51654068135764</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -5644,7 +5643,7 @@
         <v>103.0255889071707</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>155.5797571358824</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>128.41456303793819</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -5722,7 +5721,7 @@
         <v>114.12267992861671</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>135.30371875574019</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>179.226922366612</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>119.2608263576998</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -5826,7 +5825,7 @@
         <v>122.2963438843146</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -5852,7 +5851,7 @@
         <v>131.62749410610181</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>156.69595428279609</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>140.42349648519979</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>108.7592214203675</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>87.227267744692469</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>102.17337412159409</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -6008,7 +6007,7 @@
         <v>115.58241514915871</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -6034,7 +6033,7 @@
         <v>94.914407988292794</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>101.91880254698791</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>18.963528573138351</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>130.54720493424779</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>30.172442224874789</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>90.015838010965965</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -6190,7 +6189,7 @@
         <v>60.607994454485492</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>97.108564056990943</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>91.883645610582292</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -6268,7 +6267,7 @@
         <v>128.89105204533431</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>129.95209375042421</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>136.47571961867649</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>127.2458236806567</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -6372,7 +6371,7 @@
         <v>115.72704641339941</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>86.710190219527092</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>8</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>81.554476901539019</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -6450,7 +6449,7 @@
         <v>123.1415754110169</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>102.4029154685723</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>8</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>150.90894826519391</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>139.496362455217</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>8</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>84.865550101251898</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>92.599918860872791</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>110.3514667397415</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>8</v>
       </c>
@@ -6632,7 +6631,7 @@
         <v>145.23166710660101</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>79.241312152730231</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>8</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>117.484521594245</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -6710,7 +6709,7 @@
         <v>9.1815428682444704</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>8</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>82.733953939348098</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>80.922908124879015</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -6788,7 +6787,7 @@
         <v>132.28752832460751</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>118.3730281753097</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>102.80131830278781</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>119.55559343219591</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -6892,7 +6891,7 @@
         <v>117.7088869820673</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>82.275587432664551</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -6944,7 +6943,7 @@
         <v>81.854733279171157</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -6970,7 +6969,7 @@
         <v>78.959095483454277</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -6996,7 +6995,7 @@
         <v>66.858126018107825</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>76.854232123374985</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>134.23274481620049</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>52.666797925571039</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -7100,7 +7099,7 @@
         <v>84.536826808398573</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>129.68546131256721</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>128.93189071866959</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>85.294275964328193</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>87.168122285584232</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>84.728730064467598</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>109.1598226833797</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>53.58571834286397</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -7308,7 +7307,7 @@
         <v>50.135493438562307</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -7334,7 +7333,7 @@
         <v>94.312268244364716</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -7360,7 +7359,7 @@
         <v>129.44008376322429</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>108.9091011974638</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>107.3680996368886</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>8</v>
       </c>
@@ -7438,7 +7437,7 @@
         <v>147.33001861552461</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -7464,7 +7463,7 @@
         <v>107.1630152991692</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -7490,7 +7489,7 @@
         <v>147.10500566095789</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>8</v>
       </c>
@@ -7516,7 +7515,7 @@
         <v>101.61432760402521</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>8</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>118.9095784435161</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>101.66288473178351</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>132.0671398792901</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -7620,7 +7619,7 @@
         <v>74.450844312936852</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>55.069132033689577</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>132.8136596740726</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>127.8866646732009</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>88.175931598236346</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>29.8521960309821</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>126.6644198462869</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -7802,7 +7801,7 @@
         <v>142.4684394026138</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -7828,7 +7827,7 @@
         <v>57.732163247400649</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>106.3955409810745</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>118.1686244755181</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>46.84023328859621</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>85.781310768650144</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>129.03200719630919</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -7984,7 +7983,7 @@
         <v>103.69293148561</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>136.11278306674299</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>101.346065548063</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -8062,7 +8061,7 @@
         <v>106.62037763617531</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>125.3648339065866</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>135.89069040259579</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -8140,7 +8139,7 @@
         <v>45.468904467679593</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>108.7408114439163</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>111.46160940970729</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>110.2830206043962</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -8244,7 +8243,7 @@
         <v>143.36466026320221</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>85.494562390316844</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>64.458966195487136</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>97.889824032635289</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>76.846984589882311</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>45.797716933950447</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>96.702006917597984</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>8</v>
       </c>
@@ -8426,7 +8425,7 @@
         <v>49.057666669898083</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>8</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>120.6026817690686</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -8478,7 +8477,7 @@
         <v>122.9997463636094</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>8</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>94.186647980744326</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>8</v>
       </c>
@@ -8530,7 +8529,7 @@
         <v>118.8398020079367</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>8</v>
       </c>
@@ -8556,7 +8555,7 @@
         <v>139.5013510794337</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>8</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>77.292198002285517</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>67.820613266991245</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>8</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>124.7471084758934</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>136.50131287398739</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>101.62708332161939</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>82.064595265745538</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -8738,7 +8737,7 @@
         <v>119.9343005657277</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>8</v>
       </c>
@@ -8764,7 +8763,7 @@
         <v>197.95309653552181</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>8</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>120.59300199929891</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>8</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>182.89473850616429</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>159.28194342492819</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -8868,7 +8867,7 @@
         <v>159.4670938230017</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>8</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>174.95692729917101</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>8</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>157.72824947804889</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -8946,7 +8945,7 @@
         <v>108.6475260454212</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -8972,7 +8971,7 @@
         <v>74.039798820776824</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>48.478256516174667</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>76.160791415118496</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>136.14027830322431</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>125.6813216912806</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>135.187896112038</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -9128,7 +9127,7 @@
         <v>147.264250709793</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>147.90329838881729</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>125.0991532999989</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>90.7929954273406</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -9232,7 +9231,7 @@
         <v>58.568234075560888</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>8</v>
       </c>
@@ -9258,7 +9257,7 @@
         <v>20.193944464748999</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -9284,7 +9283,7 @@
         <v>49.459961420755491</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>83.047272614472121</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -9336,7 +9335,7 @@
         <v>105.720504051351</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>8</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>114.6534234369386</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -9388,7 +9387,7 @@
         <v>113.0642576148479</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>153.13356713830231</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>8</v>
       </c>
@@ -9440,7 +9439,7 @@
         <v>131.7877454861501</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>103.80865042746839</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -9492,7 +9491,7 @@
         <v>50.86235803538024</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -9518,7 +9517,7 @@
         <v>84.174992069234165</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>90.62378704075978</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -9570,7 +9569,7 @@
         <v>54.550163156749527</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -9596,7 +9595,7 @@
         <v>28.224755211032701</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>14.13956043639498</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -9648,7 +9647,7 @@
         <v>43.729336969132049</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>82.553167372548927</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -9700,7 +9699,7 @@
         <v>119.4540774533732</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -9726,7 +9725,7 @@
         <v>127.37158085850329</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>125.0224634206634</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -9778,7 +9777,7 @@
         <v>89.035159866146373</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>60.281448581455862</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>80.108573902719854</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -9856,7 +9855,7 @@
         <v>85.954433125524318</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -9882,7 +9881,7 @@
         <v>76.930601984117345</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -9908,7 +9907,7 @@
         <v>49.632443875811632</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -9934,7 +9933,7 @@
         <v>57.543975670484031</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>83.496530790379197</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -9986,7 +9985,7 @@
         <v>109.2434311068225</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -10012,7 +10011,7 @@
         <v>116.639939528276</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -10038,7 +10037,7 @@
         <v>93.861688694538572</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -10064,7 +10063,7 @@
         <v>109.9631320621782</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>54.775660063628678</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -10116,7 +10115,7 @@
         <v>95.716273386949496</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -10142,7 +10141,7 @@
         <v>84.668457548937383</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>88.286725282852672</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>102.8556340377901</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -10220,7 +10219,7 @@
         <v>31.0587625202674</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>129.74200936639301</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>19.23946489050747</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>92.493494239913915</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -10324,7 +10323,7 @@
         <v>46.192798607158153</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -10350,7 +10349,7 @@
         <v>74.501054656422838</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -10376,7 +10375,7 @@
         <v>74.488600150121769</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>73.059965318598458</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -10428,7 +10427,7 @@
         <v>122.894010162049</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>129.83410696782201</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>57.117558993036511</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -10506,7 +10505,7 @@
         <v>135.38531878104061</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>34.737996827677073</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>113.3092298868484</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -10584,7 +10583,7 @@
         <v>132.06175821542871</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -10610,7 +10609,7 @@
         <v>73.062058644823622</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>8</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>99.302042387560434</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>76.213522528382398</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>8</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>153.71539009984139</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>8</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>148.7055566909541</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>152.77261259196541</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>8</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>69.927613765919162</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>8</v>
       </c>
@@ -10792,7 +10791,7 @@
         <v>78.837417079440726</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>186.72242967046691</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -10844,7 +10843,7 @@
         <v>81.637305474675287</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>8</v>
       </c>
@@ -10870,7 +10869,7 @@
         <v>147.49352299533001</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>8</v>
       </c>
@@ -10896,7 +10895,7 @@
         <v>126.4307864030099</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>8</v>
       </c>
@@ -10922,7 +10921,7 @@
         <v>102.1722376803456</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>99.897369528925537</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -10974,7 +10973,7 @@
         <v>179.22937000258619</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>8</v>
       </c>
@@ -11000,7 +10999,7 @@
         <v>173.16797630500409</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>8</v>
       </c>
@@ -11026,7 +11025,7 @@
         <v>181.8510317967974</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>8</v>
       </c>
@@ -11052,7 +11051,7 @@
         <v>211.0078445651925</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>8</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>103.7727503026439</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>8</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>104.3345436157214</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -11130,7 +11129,7 @@
         <v>176.4298101314408</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -11156,7 +11155,7 @@
         <v>146.94179769882231</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -11182,7 +11181,7 @@
         <v>119.07229292483311</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -11208,7 +11207,7 @@
         <v>103.64583216846189</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -11234,7 +11233,7 @@
         <v>138.451505170026</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -11260,7 +11259,7 @@
         <v>123.7374760032406</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>115.6095592658771</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -11312,7 +11311,7 @@
         <v>131.49700824932381</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>128.8237872525182</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -11364,7 +11363,7 @@
         <v>87.45288674172005</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -11390,7 +11389,7 @@
         <v>140.64334331642829</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>141.19969356670799</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -11442,7 +11441,7 @@
         <v>17.59874639222598</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -11468,7 +11467,7 @@
         <v>73.540052891136767</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>117.9707082369133</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>36.383222330442727</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -11546,7 +11545,7 @@
         <v>36.263138658388328</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>110.5930601710204</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>102.4234099922634</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -11624,7 +11623,7 @@
         <v>175.29697408009201</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -11650,7 +11649,7 @@
         <v>95.071566318150275</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -11676,7 +11675,7 @@
         <v>80.51642900165325</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -11702,7 +11701,7 @@
         <v>40.175845527427121</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -11728,7 +11727,7 @@
         <v>153.29778000178891</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>114.8430415704911</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -11780,7 +11779,7 @@
         <v>38.968877840405511</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>135.8586589966356</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -11832,7 +11831,7 @@
         <v>170.50476245691999</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -11858,7 +11857,7 @@
         <v>157.94691420019441</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>125.5961087736825</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -11910,7 +11909,7 @@
         <v>131.91541155264991</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -11936,7 +11935,7 @@
         <v>174.99535086686959</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -11962,7 +11961,7 @@
         <v>107.74950261343029</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -11988,7 +11987,7 @@
         <v>79.321209523810239</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -12014,7 +12013,7 @@
         <v>29.589469528093939</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -12040,7 +12039,7 @@
         <v>107.436236472652</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -12066,7 +12065,7 @@
         <v>79.15224267527573</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -12092,7 +12091,7 @@
         <v>58.020364561863524</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -12118,7 +12117,7 @@
         <v>131.0265773719257</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -12144,7 +12143,7 @@
         <v>127.26904441148289</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>115.84556778798201</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -12196,7 +12195,7 @@
         <v>60.077859317214568</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -12222,7 +12221,7 @@
         <v>148.76626882813341</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>8</v>
       </c>
@@ -12248,7 +12247,7 @@
         <v>106.39251028371319</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -12274,7 +12273,7 @@
         <v>122.9976697092208</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -12300,7 +12299,7 @@
         <v>58.319855747463421</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>8</v>
       </c>
@@ -12326,7 +12325,7 @@
         <v>118.2364264583432</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>72.714307645442489</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>8</v>
       </c>
@@ -12378,7 +12377,7 @@
         <v>182.24657747592349</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>170.76336797378789</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -12430,7 +12429,7 @@
         <v>145.9131214483111</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>8</v>
       </c>
@@ -12456,7 +12455,7 @@
         <v>68.64068839079097</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>8</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>60.983383345911001</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>8</v>
       </c>
@@ -12508,7 +12507,7 @@
         <v>183.05952891763101</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>176.39974350906451</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>8</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>102.55877839931181</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -12586,7 +12585,7 @@
         <v>163.2739136138625</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>48.226859392574227</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>8</v>
       </c>
@@ -12638,7 +12637,7 @@
         <v>108.247800894062</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>8</v>
       </c>
@@ -12664,7 +12663,7 @@
         <v>150.605419243212</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>8</v>
       </c>
@@ -12690,7 +12689,7 @@
         <v>59.715838622627537</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>8</v>
       </c>
@@ -12716,7 +12715,7 @@
         <v>162.84362451166811</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -12742,7 +12741,7 @@
         <v>128.01506640589571</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>8</v>
       </c>
@@ -12768,7 +12767,7 @@
         <v>81.081249128080117</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>8</v>
       </c>
@@ -12794,7 +12793,7 @@
         <v>158.1214694924316</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>8</v>
       </c>
@@ -12820,7 +12819,7 @@
         <v>135.7244288966387</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>8</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>89.852565019665604</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>8</v>
       </c>
@@ -12872,7 +12871,7 @@
         <v>147.23168872733649</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>8</v>
       </c>
@@ -12898,7 +12897,7 @@
         <v>103.549230485048</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>8</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>88.097585408221306</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>8</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>102.84608767211699</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>8</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>9.6647301438103081</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>8</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v>175.34772417261789</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>8</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>142.25646058901921</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>8</v>
       </c>
@@ -13054,7 +13053,7 @@
         <v>105.2425280534854</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>102.65945400976101</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>8</v>
       </c>
@@ -13106,7 +13105,7 @@
         <v>76.319443267387413</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>8</v>
       </c>
@@ -13132,7 +13131,7 @@
         <v>171.04215213140759</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>8</v>
       </c>
@@ -13158,7 +13157,7 @@
         <v>93.693250189269904</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>8</v>
       </c>
@@ -13184,7 +13183,7 @@
         <v>53.186087205258858</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>8</v>
       </c>
@@ -13210,7 +13209,7 @@
         <v>67.760757434070399</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>8</v>
       </c>
@@ -13236,7 +13235,7 @@
         <v>202.55256678723819</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>8</v>
       </c>
@@ -13262,7 +13261,7 @@
         <v>81.593690070631936</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -13288,7 +13287,7 @@
         <v>116.3445215090853</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>8</v>
       </c>
@@ -13314,7 +13313,7 @@
         <v>84.876035044207484</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -13340,7 +13339,7 @@
         <v>96.713776616661917</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -13366,7 +13365,7 @@
         <v>191.15438384487391</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>8</v>
       </c>
@@ -13392,7 +13391,7 @@
         <v>67.364749755632147</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>174.2543278746443</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -13444,7 +13443,7 @@
         <v>123.830634776878</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>8</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>76.276533556112753</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>8</v>
       </c>
@@ -13496,7 +13495,7 @@
         <v>100.5147505340514</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>8</v>
       </c>
@@ -13522,7 +13521,7 @@
         <v>112.42039735102119</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -13548,7 +13547,7 @@
         <v>115.1201618721209</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>8</v>
       </c>
@@ -13574,7 +13573,7 @@
         <v>109.10680723801801</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>8</v>
       </c>
@@ -13600,7 +13599,7 @@
         <v>22.895255678256891</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>8</v>
       </c>
@@ -13626,7 +13625,7 @@
         <v>100.6972720712356</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>8</v>
       </c>
@@ -13652,7 +13651,7 @@
         <v>152.6185483502716</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>8</v>
       </c>
@@ -13678,7 +13677,7 @@
         <v>60.094776987043232</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>8</v>
       </c>
@@ -13704,7 +13703,7 @@
         <v>83.18061090691279</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>8</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>124.59613566139851</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -13756,7 +13755,7 @@
         <v>140.53133440394069</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>8</v>
       </c>
@@ -13782,7 +13781,7 @@
         <v>239.30525850855591</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -13808,7 +13807,7 @@
         <v>105.2240761325925</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>8</v>
       </c>
@@ -13834,7 +13833,7 @@
         <v>143.12666821235061</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>8</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>82.733994060561415</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>8</v>
       </c>
@@ -13886,7 +13885,7 @@
         <v>48.978406213772423</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -13912,7 +13911,7 @@
         <v>144.54685829407981</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -13938,7 +13937,7 @@
         <v>79.428342088636626</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>8</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>19.14116124482269</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>225.2056085699995</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -14016,7 +14015,7 @@
         <v>103.691472894797</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>8</v>
       </c>
@@ -14042,7 +14041,7 @@
         <v>160.28066442881769</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>8</v>
       </c>
@@ -14068,7 +14067,7 @@
         <v>124.413678970596</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>8</v>
       </c>
@@ -14094,7 +14093,7 @@
         <v>114.66227645052319</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>8</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>70.259185905705664</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>8</v>
       </c>
@@ -14146,7 +14145,7 @@
         <v>134.00020244938091</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>8</v>
       </c>
@@ -14172,7 +14171,7 @@
         <v>51.38358096988928</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -14198,7 +14197,7 @@
         <v>233.6551622787093</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>8</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>121.610006803318</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>8</v>
       </c>
@@ -14250,7 +14249,7 @@
         <v>81.050633876961172</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -14276,7 +14275,7 @@
         <v>122.6810630213287</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>183.21239112264919</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -14328,7 +14327,7 @@
         <v>157.8611293314209</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>8</v>
       </c>
@@ -14354,7 +14353,7 @@
         <v>156.35276964367421</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -14380,7 +14379,7 @@
         <v>143.69471598941129</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -14406,7 +14405,7 @@
         <v>80.934101882216794</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -14432,7 +14431,7 @@
         <v>196.90464829906341</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -14458,7 +14457,7 @@
         <v>114.57896168122259</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -14484,7 +14483,7 @@
         <v>109.5387054014286</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>8</v>
       </c>
@@ -14510,7 +14509,7 @@
         <v>217.25239910492709</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>8</v>
       </c>
@@ -14536,7 +14535,7 @@
         <v>145.13157165411201</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>8</v>
       </c>
@@ -14562,7 +14561,7 @@
         <v>88.948278912431562</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>8</v>
       </c>
@@ -14588,7 +14587,7 @@
         <v>163.1190338593739</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>8</v>
       </c>
@@ -14614,7 +14613,7 @@
         <v>121.1870595617517</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>8</v>
       </c>
@@ -14640,7 +14639,7 @@
         <v>92.2737850580192</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>8</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>123.9279836610215</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>8</v>
       </c>
@@ -14692,7 +14691,7 @@
         <v>57.502255047891687</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>8</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>155.597879941169</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>8</v>
       </c>
@@ -14744,7 +14743,7 @@
         <v>162.47144575420199</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>90.803797450981364</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -14796,7 +14795,7 @@
         <v>97.251042743042234</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>8</v>
       </c>
@@ -14822,7 +14821,7 @@
         <v>94.727728881389112</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -14848,7 +14847,7 @@
         <v>14.91865925853773</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>8</v>
       </c>
@@ -14874,7 +14873,7 @@
         <v>111.8952634074182</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>8</v>
       </c>
@@ -14900,7 +14899,7 @@
         <v>113.287195065742</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>8</v>
       </c>
@@ -14926,7 +14925,7 @@
         <v>140.84250311726069</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>8</v>
       </c>
@@ -14952,7 +14951,7 @@
         <v>205.15098402064871</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>8</v>
       </c>
@@ -14978,7 +14977,7 @@
         <v>84.354284420291009</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>8</v>
       </c>
@@ -15004,7 +15003,7 @@
         <v>147.62647134172821</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -15030,7 +15029,7 @@
         <v>58.784513815663672</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -15056,7 +15055,7 @@
         <v>210.3785688344976</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>8</v>
       </c>
@@ -15082,7 +15081,7 @@
         <v>84.189682891317148</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>8</v>
       </c>
@@ -15108,7 +15107,7 @@
         <v>163.55131982377321</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>8</v>
       </c>
@@ -15134,7 +15133,7 @@
         <v>122.54219071389311</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>8</v>
       </c>
@@ -15160,7 +15159,7 @@
         <v>77.097092640865711</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>8</v>
       </c>
@@ -15186,7 +15185,7 @@
         <v>89.452050391153335</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>8</v>
       </c>
@@ -15212,7 +15211,7 @@
         <v>66.889475348160502</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>8</v>
       </c>
@@ -15238,7 +15237,7 @@
         <v>122.70193465193491</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -15264,7 +15263,7 @@
         <v>82.212630066142836</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>8</v>
       </c>
@@ -15290,7 +15289,7 @@
         <v>104.3378167933886</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>8</v>
       </c>
@@ -15316,7 +15315,7 @@
         <v>52.639340453422172</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>8</v>
       </c>
@@ -15342,7 +15341,7 @@
         <v>48.662877067587637</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -15368,7 +15367,7 @@
         <v>82.215269342356521</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -15394,7 +15393,7 @@
         <v>229.28298865945229</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>8</v>
       </c>
@@ -15420,7 +15419,7 @@
         <v>209.68965955343839</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>8</v>
       </c>
@@ -15446,7 +15445,7 @@
         <v>85.549686402726024</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>8</v>
       </c>
@@ -15472,7 +15471,7 @@
         <v>144.9589974008527</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>8</v>
       </c>
@@ -15498,7 +15497,7 @@
         <v>47.699955538401611</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>8</v>
       </c>
@@ -15524,7 +15523,7 @@
         <v>194.8914892091735</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>8</v>
       </c>
@@ -15550,7 +15549,7 @@
         <v>141.4047057691148</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>8</v>
       </c>
@@ -15576,7 +15575,7 @@
         <v>188.97006935401549</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>8</v>
       </c>
@@ -15602,7 +15601,7 @@
         <v>65.187609868148684</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>8</v>
       </c>
@@ -15628,7 +15627,7 @@
         <v>106.50934648524439</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>8</v>
       </c>
@@ -15654,7 +15653,7 @@
         <v>87.922703255505212</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>8</v>
       </c>
@@ -15680,7 +15679,7 @@
         <v>161.7314729665145</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>8</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>138.78687462871619</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>8</v>
       </c>
@@ -15732,7 +15731,7 @@
         <v>92.225279724095458</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>8</v>
       </c>
@@ -15758,7 +15757,7 @@
         <v>129.03487946226659</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>8</v>
       </c>
@@ -15784,7 +15783,7 @@
         <v>116.05775301810159</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>8</v>
       </c>
@@ -15810,7 +15809,7 @@
         <v>30.90826542903562</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>8</v>
       </c>
@@ -15836,7 +15835,7 @@
         <v>190.74521662541511</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -15862,7 +15861,7 @@
         <v>295.43899539725732</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>8</v>
       </c>
@@ -15888,7 +15887,7 @@
         <v>147.68608972398829</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>8</v>
       </c>
@@ -15914,7 +15913,7 @@
         <v>87.202501558599351</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>8</v>
       </c>
@@ -15940,7 +15939,7 @@
         <v>95.653811491359519</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>8</v>
       </c>
@@ -15966,7 +15965,7 @@
         <v>154.34795960284879</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>8</v>
       </c>
@@ -15992,7 +15991,7 @@
         <v>99.333200471781765</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>8</v>
       </c>
@@ -16018,7 +16017,7 @@
         <v>201.4878258347384</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>8</v>
       </c>
@@ -16044,7 +16043,7 @@
         <v>115.564654267802</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -16070,7 +16069,7 @@
         <v>164.11096992265911</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>8</v>
       </c>
@@ -16096,7 +16095,7 @@
         <v>77.059729568919721</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>8</v>
       </c>
@@ -16122,7 +16121,7 @@
         <v>139.2097619962604</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>8</v>
       </c>
@@ -16148,7 +16147,7 @@
         <v>98.722399367024323</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>8</v>
       </c>
@@ -16174,7 +16173,7 @@
         <v>120.422673821543</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>8</v>
       </c>
@@ -16200,7 +16199,7 @@
         <v>101.9480089138724</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>8</v>
       </c>
@@ -16226,7 +16225,7 @@
         <v>200.86380759205241</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>8</v>
       </c>
@@ -16252,7 +16251,7 @@
         <v>163.51539581491409</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>8</v>
       </c>
@@ -16278,7 +16277,7 @@
         <v>121.9573602585286</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>8</v>
       </c>
@@ -16304,7 +16303,7 @@
         <v>232.11835670694569</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>8</v>
       </c>
@@ -16330,7 +16329,7 @@
         <v>221.60691943925221</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>8</v>
       </c>
@@ -16356,7 +16355,7 @@
         <v>165.95993732816041</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>8</v>
       </c>
@@ -16382,7 +16381,7 @@
         <v>160.76756797368481</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>8</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>217.31845011635349</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>8</v>
       </c>
@@ -16434,7 +16433,7 @@
         <v>150.42696656096189</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>8</v>
       </c>
@@ -16460,7 +16459,7 @@
         <v>192.88269363899741</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>8</v>
       </c>
@@ -16486,7 +16485,7 @@
         <v>150.0803177097865</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>8</v>
       </c>
@@ -16512,7 +16511,7 @@
         <v>148.03075094656421</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>8</v>
       </c>
@@ -16538,7 +16537,7 @@
         <v>134.48058066483591</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>8</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>197.52712356961391</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>8</v>
       </c>
@@ -16590,7 +16589,7 @@
         <v>114.952507486988</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>8</v>
       </c>
@@ -16616,7 +16615,7 @@
         <v>172.49870832608889</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>8</v>
       </c>
@@ -16642,7 +16641,7 @@
         <v>141.6910492486123</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>8</v>
       </c>
@@ -16668,7 +16667,7 @@
         <v>227.0533699118719</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>8</v>
       </c>
@@ -16694,7 +16693,7 @@
         <v>236.4926629777386</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>8</v>
       </c>
@@ -16720,7 +16719,7 @@
         <v>186.40726070951649</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>8</v>
       </c>
@@ -16746,7 +16745,7 @@
         <v>181.66398009340949</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -16772,7 +16771,7 @@
         <v>222.86351092747111</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>8</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>166.1341730453012</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>8</v>
       </c>
@@ -16824,7 +16823,7 @@
         <v>147.21779897518871</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>8</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>123.8300358025932</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>8</v>
       </c>
@@ -16876,7 +16875,7 @@
         <v>237.2634071833254</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>8</v>
       </c>
@@ -16902,7 +16901,7 @@
         <v>133.2576463753137</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>8</v>
       </c>
@@ -16928,7 +16927,7 @@
         <v>93.401292663977131</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>8</v>
       </c>
@@ -16954,7 +16953,7 @@
         <v>67.966073905477387</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>8</v>
       </c>
@@ -16980,7 +16979,7 @@
         <v>208.77682376306259</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>8</v>
       </c>
@@ -17006,7 +17005,7 @@
         <v>208.40814715947209</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>8</v>
       </c>
@@ -17032,7 +17031,7 @@
         <v>184.34523971510461</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>8</v>
       </c>
@@ -17058,7 +17057,7 @@
         <v>205.23192067563789</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>8</v>
       </c>
@@ -17084,7 +17083,7 @@
         <v>156.7653003553207</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>8</v>
       </c>
@@ -17110,7 +17109,7 @@
         <v>179.80848762313639</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>8</v>
       </c>
@@ -17136,7 +17135,7 @@
         <v>92.574649126587516</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>8</v>
       </c>
@@ -17162,7 +17161,7 @@
         <v>139.56830159706999</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>8</v>
       </c>
@@ -17188,7 +17187,7 @@
         <v>107.0438832233161</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>8</v>
       </c>
@@ -17214,7 +17213,7 @@
         <v>60.502162926837663</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>8</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>202.37163484824771</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>8</v>
       </c>
@@ -17266,7 +17265,7 @@
         <v>261.29418099548252</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>8</v>
       </c>
@@ -17292,7 +17291,7 @@
         <v>173.17979288767421</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>8</v>
       </c>
@@ -17318,7 +17317,7 @@
         <v>62.013513654552483</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>8</v>
       </c>
@@ -17344,7 +17343,7 @@
         <v>67.764084150697514</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>8</v>
       </c>
@@ -17370,7 +17369,7 @@
         <v>158.22263770392769</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>8</v>
       </c>
@@ -17396,7 +17395,7 @@
         <v>226.71499010057619</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>8</v>
       </c>
@@ -17422,7 +17421,7 @@
         <v>131.00535845961639</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>8</v>
       </c>
@@ -17448,7 +17447,7 @@
         <v>124.2259384785841</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>8</v>
       </c>
@@ -17474,7 +17473,7 @@
         <v>224.49095677426021</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>8</v>
       </c>
@@ -17500,7 +17499,7 @@
         <v>190.7914368611421</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>8</v>
       </c>
@@ -17526,7 +17525,7 @@
         <v>230.2349709139354</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>8</v>
       </c>
@@ -17552,7 +17551,7 @@
         <v>101.8239556247802</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>8</v>
       </c>
@@ -17578,7 +17577,7 @@
         <v>153.2030841879664</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>8</v>
       </c>
@@ -17604,7 +17603,7 @@
         <v>161.31944081976411</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>8</v>
       </c>
@@ -17630,7 +17629,7 @@
         <v>148.6166678574518</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>8</v>
       </c>
@@ -17656,7 +17655,7 @@
         <v>152.2638810477296</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>8</v>
       </c>
@@ -17682,7 +17681,7 @@
         <v>87.392044976742213</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>8</v>
       </c>
@@ -17708,7 +17707,7 @@
         <v>263.92184402737001</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>8</v>
       </c>
@@ -17734,7 +17733,7 @@
         <v>135.89838267861131</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>8</v>
       </c>
@@ -17760,7 +17759,7 @@
         <v>67.329719317254273</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>8</v>
       </c>
@@ -17786,7 +17785,7 @@
         <v>157.1381507123273</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -17812,7 +17811,7 @@
         <v>187.986739211257</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>8</v>
       </c>
@@ -17838,7 +17837,7 @@
         <v>148.9627431398338</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>8</v>
       </c>
@@ -17864,7 +17863,7 @@
         <v>158.38466736305261</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>8</v>
       </c>
@@ -17890,7 +17889,7 @@
         <v>176.7935608087877</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -17916,7 +17915,7 @@
         <v>213.71968525997849</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>8</v>
       </c>
@@ -17942,7 +17941,7 @@
         <v>111.76900874985409</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>8</v>
       </c>
@@ -17968,7 +17967,7 @@
         <v>123.55039988670001</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>8</v>
       </c>
@@ -17994,7 +17993,7 @@
         <v>183.30249021830301</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>8</v>
       </c>
@@ -18020,7 +18019,7 @@
         <v>189.71717003385689</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>8</v>
       </c>
@@ -18046,7 +18045,7 @@
         <v>145.03284592694459</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>8</v>
       </c>
@@ -18072,7 +18071,7 @@
         <v>75.651725788590937</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>8</v>
       </c>
@@ -18098,7 +18097,7 @@
         <v>186.874825480976</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>8</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>187.62968581535171</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>8</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>177.464416427809</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>8</v>
       </c>
@@ -18176,7 +18175,7 @@
         <v>232.0804970134478</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>8</v>
       </c>
@@ -18202,7 +18201,7 @@
         <v>188.83297051886549</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>8</v>
       </c>
@@ -18228,7 +18227,7 @@
         <v>251.21633894216299</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>8</v>
       </c>
@@ -18254,7 +18253,7 @@
         <v>122.0852401945843</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>8</v>
       </c>
@@ -18280,7 +18279,7 @@
         <v>119.7113233139698</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>8</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>106.9211903145315</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>8</v>
       </c>
@@ -18332,7 +18331,7 @@
         <v>79.205037069384147</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>8</v>
       </c>
@@ -18358,7 +18357,7 @@
         <v>119.0129986659279</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>8</v>
       </c>
@@ -18384,7 +18383,7 @@
         <v>191.66018107230849</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>8</v>
       </c>
@@ -18410,7 +18409,7 @@
         <v>104.63681061829929</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>8</v>
       </c>
@@ -18436,7 +18435,7 @@
         <v>71.58814942322681</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>8</v>
       </c>
@@ -18462,7 +18461,7 @@
         <v>167.0418488735969</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -18488,7 +18487,7 @@
         <v>114.8036017498879</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>8</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>57.074959629643473</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>8</v>
       </c>
@@ -18540,7 +18539,7 @@
         <v>151.56077698435001</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>8</v>
       </c>
@@ -18566,7 +18565,7 @@
         <v>157.80888494729251</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>8</v>
       </c>
@@ -18592,7 +18591,7 @@
         <v>63.818824912106678</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>8</v>
       </c>
@@ -18618,7 +18617,7 @@
         <v>154.50021186548349</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>8</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>161.8166536958486</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>8</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>58.901877951511253</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>8</v>
       </c>
@@ -18696,7 +18695,7 @@
         <v>27.60739472916962</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>8</v>
       </c>
@@ -18722,7 +18721,7 @@
         <v>226.15167213017901</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>8</v>
       </c>
@@ -18748,7 +18747,7 @@
         <v>112.5780473624568</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>8</v>
       </c>
@@ -18774,7 +18773,7 @@
         <v>132.04897446171239</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>8</v>
       </c>
@@ -18800,7 +18799,7 @@
         <v>150.56551952430439</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>8</v>
       </c>
@@ -18826,7 +18825,7 @@
         <v>86.816902506756378</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>8</v>
       </c>
@@ -18852,7 +18851,7 @@
         <v>34.708685331783059</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>8</v>
       </c>
@@ -18878,7 +18877,7 @@
         <v>156.76178299206771</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>8</v>
       </c>
@@ -18904,7 +18903,7 @@
         <v>100.0786260956634</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>8</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>130.98153568243691</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>8</v>
       </c>
@@ -18956,7 +18955,7 @@
         <v>150.04539780498979</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>8</v>
       </c>
@@ -18982,7 +18981,7 @@
         <v>98.880607825175574</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>8</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>117.8833379654547</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>8</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>163.4054116340136</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>8</v>
       </c>
@@ -19060,7 +19059,7 @@
         <v>106.6445918543748</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>8</v>
       </c>
@@ -19086,7 +19085,7 @@
         <v>123.12473322129721</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>8</v>
       </c>
@@ -19112,7 +19111,7 @@
         <v>107.7288026285941</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>8</v>
       </c>
@@ -19138,7 +19137,7 @@
         <v>94.408883014005767</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>8</v>
       </c>
@@ -19164,7 +19163,7 @@
         <v>192.1709425089378</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>8</v>
       </c>
@@ -19190,7 +19189,7 @@
         <v>38.38064608474766</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>8</v>
       </c>
@@ -19216,7 +19215,7 @@
         <v>78.098546535077901</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>8</v>
       </c>
@@ -19242,7 +19241,7 @@
         <v>161.60758500350269</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>8</v>
       </c>
@@ -19268,7 +19267,7 @@
         <v>17.986464332883141</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>8</v>
       </c>
@@ -19294,7 +19293,7 @@
         <v>206.65272182908379</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>8</v>
       </c>
@@ -19320,7 +19319,7 @@
         <v>119.7295242005389</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>8</v>
       </c>
@@ -19346,7 +19345,7 @@
         <v>178.23288039770969</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>8</v>
       </c>
@@ -19372,7 +19371,7 @@
         <v>26.995502964906759</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>8</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>101.0692554712262</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>8</v>
       </c>
@@ -19424,7 +19423,7 @@
         <v>178.99786537005451</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>8</v>
       </c>
@@ -19450,7 +19449,7 @@
         <v>70.494331661477972</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>8</v>
       </c>
@@ -19476,7 +19475,7 @@
         <v>116.7818502900512</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>8</v>
       </c>
@@ -19502,7 +19501,7 @@
         <v>138.54900112906091</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>8</v>
       </c>
@@ -19528,7 +19527,7 @@
         <v>134.9495432299197</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>8</v>
       </c>
@@ -19554,7 +19553,7 @@
         <v>174.14354205017801</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>8</v>
       </c>
@@ -19580,7 +19579,7 @@
         <v>115.0038976776674</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>8</v>
       </c>
@@ -19606,7 +19605,7 @@
         <v>95.923104552748342</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>8</v>
       </c>
@@ -19632,7 +19631,7 @@
         <v>164.12269179349411</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>8</v>
       </c>
@@ -19658,7 +19657,7 @@
         <v>119.9626078106778</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>8</v>
       </c>
@@ -19684,7 +19683,7 @@
         <v>194.44084086123249</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>8</v>
       </c>
@@ -19710,7 +19709,7 @@
         <v>87.33232985044873</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>8</v>
       </c>
@@ -19736,7 +19735,7 @@
         <v>97.830048760364292</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>8</v>
       </c>
@@ -19762,7 +19761,7 @@
         <v>115.8941576569633</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>8</v>
       </c>
@@ -19788,7 +19787,7 @@
         <v>68.302034594303549</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>8</v>
       </c>
@@ -19814,7 +19813,7 @@
         <v>115.30889731890321</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>8</v>
       </c>
@@ -19840,7 +19839,7 @@
         <v>135.49825221471619</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>8</v>
       </c>
@@ -19866,7 +19865,7 @@
         <v>216.9354443232734</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>8</v>
       </c>
@@ -19892,7 +19891,7 @@
         <v>127.201542550997</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>8</v>
       </c>
@@ -19918,7 +19917,7 @@
         <v>124.6439892494363</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>8</v>
       </c>
@@ -19944,7 +19943,7 @@
         <v>156.71103273295799</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>8</v>
       </c>
@@ -19970,7 +19969,7 @@
         <v>57.846199257798382</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>8</v>
       </c>
@@ -19996,7 +19995,7 @@
         <v>178.15649984175781</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>8</v>
       </c>
@@ -20022,7 +20021,7 @@
         <v>86.925591922173865</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>8</v>
       </c>
@@ -20048,7 +20047,7 @@
         <v>116.0893094462154</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>8</v>
       </c>
@@ -20074,7 +20073,7 @@
         <v>29.135065272603661</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>8</v>
       </c>
@@ -20100,7 +20099,7 @@
         <v>80.324597541495308</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>8</v>
       </c>
@@ -20126,7 +20125,7 @@
         <v>96.053690084949338</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>8</v>
       </c>
@@ -20152,7 +20151,7 @@
         <v>141.882087152699</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>8</v>
       </c>
@@ -20178,7 +20177,7 @@
         <v>119.6685190610486</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>8</v>
       </c>
@@ -20204,7 +20203,7 @@
         <v>203.1468511962963</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>8</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>93.611567203500471</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>8</v>
       </c>
@@ -20256,7 +20255,7 @@
         <v>62.85274711610149</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>8</v>
       </c>
@@ -20282,7 +20281,7 @@
         <v>117.0615607407465</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>8</v>
       </c>
@@ -20308,7 +20307,7 @@
         <v>93.324127668008487</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>8</v>
       </c>
@@ -20334,7 +20333,7 @@
         <v>145.3889480781437</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>8</v>
       </c>
@@ -20360,7 +20359,7 @@
         <v>153.22300846576951</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>8</v>
       </c>
@@ -20386,7 +20385,7 @@
         <v>125.0765796371428</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>8</v>
       </c>
@@ -20412,7 +20411,7 @@
         <v>111.42797227494751</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>8</v>
       </c>
@@ -20438,7 +20437,7 @@
         <v>41.449079755023469</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>8</v>
       </c>
@@ -20464,7 +20463,7 @@
         <v>180.77048721764029</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>8</v>
       </c>
@@ -20490,7 +20489,7 @@
         <v>149.9125277599542</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>8</v>
       </c>
@@ -20516,7 +20515,7 @@
         <v>130.58970787209481</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>8</v>
       </c>
@@ -20542,7 +20541,7 @@
         <v>105.6617804468324</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>8</v>
       </c>
@@ -20568,7 +20567,7 @@
         <v>131.76440223525111</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>8</v>
       </c>
@@ -20594,7 +20593,7 @@
         <v>64.805809481588113</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>8</v>
       </c>
@@ -20620,7 +20619,7 @@
         <v>137.18644615121599</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>8</v>
       </c>
@@ -20646,7 +20645,7 @@
         <v>78.94140499236758</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>8</v>
       </c>
@@ -20672,7 +20671,7 @@
         <v>163.16299106600681</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>8</v>
       </c>
@@ -20698,7 +20697,7 @@
         <v>164.84117080978791</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>8</v>
       </c>
@@ -20724,7 +20723,7 @@
         <v>88.272299611594718</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>8</v>
       </c>
@@ -20750,7 +20749,7 @@
         <v>156.86386051554251</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>8</v>
       </c>
@@ -20776,7 +20775,7 @@
         <v>148.69370591671279</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>8</v>
       </c>
@@ -20802,7 +20801,7 @@
         <v>167.9514565688693</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>8</v>
       </c>
@@ -20828,7 +20827,7 @@
         <v>138.64277164265101</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>8</v>
       </c>
@@ -20854,7 +20853,7 @@
         <v>53.238968252347767</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>8</v>
       </c>
@@ -20880,7 +20879,7 @@
         <v>129.01039915897709</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>8</v>
       </c>
@@ -20906,7 +20905,7 @@
         <v>125.884738716288</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>8</v>
       </c>
@@ -20932,7 +20931,7 @@
         <v>117.16608297518491</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>8</v>
       </c>
@@ -20958,7 +20957,7 @@
         <v>103.6247224830859</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>8</v>
       </c>
@@ -20984,7 +20983,7 @@
         <v>131.32870208663289</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>8</v>
       </c>
@@ -21010,7 +21009,7 @@
         <v>112.2344032983558</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>8</v>
       </c>
@@ -21036,7 +21035,7 @@
         <v>132.89239374907541</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>8</v>
       </c>
@@ -21062,7 +21061,7 @@
         <v>224.88734989660969</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>8</v>
       </c>
@@ -21088,7 +21087,7 @@
         <v>55.012949779093248</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>8</v>
       </c>
@@ -21114,7 +21113,7 @@
         <v>179.55519471153769</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>8</v>
       </c>
@@ -21140,7 +21139,7 @@
         <v>155.29718378878621</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>8</v>
       </c>
@@ -21166,7 +21165,7 @@
         <v>160.896672887303</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>8</v>
       </c>
@@ -21192,7 +21191,7 @@
         <v>65.251116350912795</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>8</v>
       </c>
@@ -21218,7 +21217,7 @@
         <v>132.24929253758981</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>8</v>
       </c>
@@ -21244,7 +21243,7 @@
         <v>141.5519761428869</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>8</v>
       </c>
@@ -21270,7 +21269,7 @@
         <v>167.47954292704591</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>8</v>
       </c>
@@ -21296,7 +21295,7 @@
         <v>88.873854709946286</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>8</v>
       </c>
@@ -21322,7 +21321,7 @@
         <v>113.35036733395781</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>8</v>
       </c>
@@ -21348,7 +21347,7 @@
         <v>193.39772792389289</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>8</v>
       </c>
@@ -21374,7 +21373,7 @@
         <v>81.539104532578776</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>8</v>
       </c>
@@ -21400,7 +21399,7 @@
         <v>144.29324161635549</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>8</v>
       </c>
@@ -21426,7 +21425,7 @@
         <v>30.187304567658121</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>8</v>
       </c>
@@ -21452,7 +21451,7 @@
         <v>183.118119443251</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>8</v>
       </c>
@@ -21478,7 +21477,7 @@
         <v>117.8030567067561</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>8</v>
       </c>
@@ -21504,7 +21503,7 @@
         <v>111.113376936058</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>8</v>
       </c>
@@ -21530,7 +21529,7 @@
         <v>192.38748737907389</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>8</v>
       </c>
@@ -21556,7 +21555,7 @@
         <v>158.77242825276031</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>8</v>
       </c>
@@ -21582,7 +21581,7 @@
         <v>111.8117873441004</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>8</v>
       </c>
@@ -21608,7 +21607,7 @@
         <v>148.16860812787041</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>8</v>
       </c>
@@ -21634,7 +21633,7 @@
         <v>171.0702128558338</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>8</v>
       </c>
@@ -21660,7 +21659,7 @@
         <v>216.43031144640969</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>8</v>
       </c>
@@ -21686,7 +21685,7 @@
         <v>176.02002416065901</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>8</v>
       </c>
@@ -21712,7 +21711,7 @@
         <v>179.20690502188901</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>8</v>
       </c>
@@ -21738,7 +21737,7 @@
         <v>141.20281531176411</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>8</v>
       </c>
@@ -21764,7 +21763,7 @@
         <v>116.05447653340261</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>8</v>
       </c>
@@ -21790,7 +21789,7 @@
         <v>170.65682119967019</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>8</v>
       </c>
@@ -21816,7 +21815,7 @@
         <v>129.1375008854078</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>8</v>
       </c>
@@ -21842,7 +21841,7 @@
         <v>62.196586545585014</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>8</v>
       </c>
@@ -21868,7 +21867,7 @@
         <v>160.86968736062471</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>8</v>
       </c>
@@ -21894,7 +21893,7 @@
         <v>189.71968315729131</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>8</v>
       </c>
@@ -21920,7 +21919,7 @@
         <v>230.82418362723021</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>8</v>
       </c>
@@ -21946,7 +21945,7 @@
         <v>125.7941303612633</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>8</v>
       </c>
@@ -21972,7 +21971,7 @@
         <v>141.4787306575916</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>8</v>
       </c>
@@ -21998,7 +21997,7 @@
         <v>138.5631486163189</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>8</v>
       </c>
@@ -22024,7 +22023,7 @@
         <v>138.97064412613491</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>8</v>
       </c>
@@ -22050,7 +22049,7 @@
         <v>214.0910060182463</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>8</v>
       </c>
@@ -22076,7 +22075,7 @@
         <v>182.55853097738211</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>8</v>
       </c>
@@ -22102,7 +22101,7 @@
         <v>104.65921009904331</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>8</v>
       </c>
@@ -22128,7 +22127,7 @@
         <v>182.08550937270729</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>8</v>
       </c>
@@ -22154,7 +22153,7 @@
         <v>166.70067485900029</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>8</v>
       </c>
@@ -22180,7 +22179,7 @@
         <v>38.006072138640093</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>8</v>
       </c>
@@ -22206,7 +22205,7 @@
         <v>118.0878979764049</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>8</v>
       </c>
@@ -22232,7 +22231,7 @@
         <v>157.69166344963</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>8</v>
       </c>
@@ -22258,7 +22257,7 @@
         <v>106.6063226475454</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>8</v>
       </c>
@@ -22284,7 +22283,7 @@
         <v>104.16086137229981</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>8</v>
       </c>
@@ -22310,7 +22309,7 @@
         <v>81.220764348715605</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>8</v>
       </c>
@@ -22336,7 +22335,7 @@
         <v>68.367465245980881</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>8</v>
       </c>
@@ -22362,7 +22361,7 @@
         <v>100.4933295905881</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>8</v>
       </c>
@@ -22388,7 +22387,7 @@
         <v>121.4083193772715</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>8</v>
       </c>
@@ -22414,7 +22413,7 @@
         <v>170.5602568620628</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>8</v>
       </c>
@@ -22440,7 +22439,7 @@
         <v>264.12884671046942</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>8</v>
       </c>
@@ -22466,7 +22465,7 @@
         <v>37.500984791506369</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>8</v>
       </c>
@@ -22492,7 +22491,7 @@
         <v>103.0987127096699</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>8</v>
       </c>
@@ -22518,7 +22517,7 @@
         <v>7.1271391410582208</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>8</v>
       </c>
@@ -22544,7 +22543,7 @@
         <v>164.75966783829341</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>8</v>
       </c>
@@ -22570,7 +22569,7 @@
         <v>175.68166234643849</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>8</v>
       </c>
@@ -22596,7 +22595,7 @@
         <v>108.77863536938909</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>8</v>
       </c>
@@ -22622,7 +22621,7 @@
         <v>150.09477597258979</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>8</v>
       </c>
@@ -22648,7 +22647,7 @@
         <v>91.563803698605881</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>8</v>
       </c>
@@ -22674,7 +22673,7 @@
         <v>125.6517590559223</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>8</v>
       </c>
@@ -22700,7 +22699,7 @@
         <v>168.32713355170381</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>8</v>
       </c>
@@ -22726,7 +22725,7 @@
         <v>69.993314325156575</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>8</v>
       </c>
@@ -22752,7 +22751,7 @@
         <v>98.484695747670671</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>8</v>
       </c>
@@ -22778,7 +22777,7 @@
         <v>156.99106564811359</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>8</v>
       </c>
@@ -22804,7 +22803,7 @@
         <v>156.94656611700751</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>8</v>
       </c>
@@ -22830,7 +22829,7 @@
         <v>151.5579637913747</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>8</v>
       </c>
@@ -22856,7 +22855,7 @@
         <v>162.8374339709128</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>8</v>
       </c>
@@ -22882,7 +22881,7 @@
         <v>131.86819687936099</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>8</v>
       </c>
@@ -22908,7 +22907,7 @@
         <v>104.90229081219231</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>8</v>
       </c>
@@ -22934,7 +22933,7 @@
         <v>161.8980459813221</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>8</v>
       </c>
@@ -22960,7 +22959,7 @@
         <v>181.33776545473151</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>8</v>
       </c>
@@ -22986,7 +22985,7 @@
         <v>163.2725536699854</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>8</v>
       </c>
@@ -23012,7 +23011,7 @@
         <v>184.78057211448751</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>8</v>
       </c>
@@ -23038,7 +23037,7 @@
         <v>139.72950661225701</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>8</v>
       </c>
@@ -23064,7 +23063,7 @@
         <v>146.32397012244189</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>8</v>
       </c>
@@ -23090,7 +23089,7 @@
         <v>137.16111745361081</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>8</v>
       </c>
@@ -23116,7 +23115,7 @@
         <v>129.72646091102649</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>8</v>
       </c>
@@ -23142,7 +23141,7 @@
         <v>80.485045945944819</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>8</v>
       </c>
@@ -23168,7 +23167,7 @@
         <v>121.1661865492064</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>8</v>
       </c>
@@ -23194,7 +23193,7 @@
         <v>129.83925132825411</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>8</v>
       </c>
@@ -23220,7 +23219,7 @@
         <v>134.70171125732509</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>8</v>
       </c>
@@ -23246,7 +23245,7 @@
         <v>127.9573155170843</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>8</v>
       </c>
@@ -23272,7 +23271,7 @@
         <v>123.9992512329416</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>8</v>
       </c>
@@ -23298,7 +23297,7 @@
         <v>133.79780260609951</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>8</v>
       </c>
@@ -23324,7 +23323,7 @@
         <v>110.79686471845601</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>8</v>
       </c>
@@ -23350,7 +23349,7 @@
         <v>174.9040381688815</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>8</v>
       </c>
@@ -23376,7 +23375,7 @@
         <v>138.5430744763184</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>8</v>
       </c>
@@ -23402,7 +23401,7 @@
         <v>153.9270010133809</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>8</v>
       </c>
@@ -23428,7 +23427,7 @@
         <v>122.07813309978479</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>8</v>
       </c>
@@ -23454,7 +23453,7 @@
         <v>81.489272499453264</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>8</v>
       </c>
@@ -23480,7 +23479,7 @@
         <v>178.37601662745831</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>8</v>
       </c>
@@ -23506,7 +23505,7 @@
         <v>167.7672048327569</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>8</v>
       </c>
@@ -23532,7 +23531,7 @@
         <v>103.3472796606594</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>8</v>
       </c>
@@ -23558,7 +23557,7 @@
         <v>168.23763722003329</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>8</v>
       </c>
@@ -23584,7 +23583,7 @@
         <v>193.61564413736781</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>8</v>
       </c>
@@ -23610,7 +23609,7 @@
         <v>135.51430392720249</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>8</v>
       </c>
@@ -23636,7 +23635,7 @@
         <v>222.6556752099672</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>8</v>
       </c>
@@ -23662,7 +23661,7 @@
         <v>224.9205837025882</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>8</v>
       </c>
@@ -23688,7 +23687,7 @@
         <v>197.68178831717751</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>8</v>
       </c>
@@ -23714,7 +23713,7 @@
         <v>229.10408733627071</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>8</v>
       </c>
@@ -23740,7 +23739,7 @@
         <v>70.948405010978576</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>8</v>
       </c>
@@ -23766,7 +23765,7 @@
         <v>184.05647274961339</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>8</v>
       </c>
@@ -23792,7 +23791,7 @@
         <v>11.91418087651499</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>8</v>
       </c>
@@ -23818,7 +23817,7 @@
         <v>122.6142671301188</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>8</v>
       </c>
@@ -23844,7 +23843,7 @@
         <v>155.15398430308781</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>8</v>
       </c>
@@ -23870,7 +23869,7 @@
         <v>87.330211033490656</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>8</v>
       </c>
@@ -23896,7 +23895,7 @@
         <v>112.67908511523331</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>8</v>
       </c>
@@ -23922,7 +23921,7 @@
         <v>164.17302856978259</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>8</v>
       </c>
@@ -23948,7 +23947,7 @@
         <v>203.04906635337301</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>8</v>
       </c>
@@ -23974,7 +23973,7 @@
         <v>90.857779237578171</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>8</v>
       </c>
@@ -24000,7 +23999,7 @@
         <v>171.9204114828562</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>8</v>
       </c>
@@ -24026,7 +24025,7 @@
         <v>164.95131033953021</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>8</v>
       </c>
@@ -24052,7 +24051,7 @@
         <v>129.7497298621156</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>8</v>
       </c>
@@ -24078,7 +24077,7 @@
         <v>96.032333289404221</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>8</v>
       </c>
@@ -24104,7 +24103,7 @@
         <v>155.51731665402551</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>8</v>
       </c>
@@ -24130,7 +24129,7 @@
         <v>135.63375140218591</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>8</v>
       </c>
@@ -24156,7 +24155,7 @@
         <v>151.4572709831582</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>8</v>
       </c>
@@ -24182,7 +24181,7 @@
         <v>126.98140652093819</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>8</v>
       </c>
@@ -24208,7 +24207,7 @@
         <v>231.33115282142819</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>8</v>
       </c>
@@ -24234,7 +24233,7 @@
         <v>182.22633507816221</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>8</v>
       </c>
@@ -24260,7 +24259,7 @@
         <v>188.06403840205101</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>8</v>
       </c>
@@ -24286,7 +24285,7 @@
         <v>194.47685933671511</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>8</v>
       </c>
@@ -24312,7 +24311,7 @@
         <v>142.49421727071061</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>8</v>
       </c>
@@ -24338,7 +24337,7 @@
         <v>268.38959860638391</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>8</v>
       </c>
@@ -24364,7 +24363,7 @@
         <v>217.54382155780701</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>8</v>
       </c>
@@ -24390,7 +24389,7 @@
         <v>208.5185515945499</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>8</v>
       </c>
@@ -24416,7 +24415,7 @@
         <v>266.5875802245755</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>8</v>
       </c>
@@ -24442,7 +24441,7 @@
         <v>221.1655505819887</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>8</v>
       </c>
@@ -24468,7 +24467,7 @@
         <v>125.0721573535872</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>8</v>
       </c>
@@ -24494,7 +24493,7 @@
         <v>115.69779268242981</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>8</v>
       </c>
@@ -24520,7 +24519,7 @@
         <v>152.16853305689719</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>8</v>
       </c>
@@ -24546,7 +24545,7 @@
         <v>65.712969074898268</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>8</v>
       </c>
@@ -24572,7 +24571,7 @@
         <v>229.14048564837779</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>8</v>
       </c>
@@ -24598,7 +24597,7 @@
         <v>240.54755837292501</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>8</v>
       </c>
@@ -24624,7 +24623,7 @@
         <v>70.013592228974034</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>8</v>
       </c>
@@ -24650,7 +24649,7 @@
         <v>95.89988206814013</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>8</v>
       </c>
@@ -24676,7 +24675,7 @@
         <v>162.83786556938679</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>8</v>
       </c>
@@ -24702,7 +24701,7 @@
         <v>124.8195690417916</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>8</v>
       </c>
@@ -24728,7 +24727,7 @@
         <v>219.38832566702831</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>8</v>
       </c>
@@ -24754,7 +24753,7 @@
         <v>143.76310651124149</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>8</v>
       </c>
@@ -24780,7 +24779,7 @@
         <v>160.1275892684865</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>8</v>
       </c>
@@ -24806,7 +24805,7 @@
         <v>121.2500854896865</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>8</v>
       </c>
@@ -24832,7 +24831,7 @@
         <v>30.856788561815261</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>8</v>
       </c>
@@ -24858,7 +24857,7 @@
         <v>46.906506811928438</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>8</v>
       </c>
@@ -24884,7 +24883,7 @@
         <v>199.61554100222961</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>8</v>
       </c>
@@ -24910,7 +24909,7 @@
         <v>73.56634334123558</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>8</v>
       </c>
@@ -24936,7 +24935,7 @@
         <v>163.1551768681359</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>8</v>
       </c>
@@ -24962,7 +24961,7 @@
         <v>247.7321438661854</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>8</v>
       </c>
@@ -24988,7 +24987,7 @@
         <v>114.7487593499423</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>8</v>
       </c>
@@ -25014,7 +25013,7 @@
         <v>127.1533143792138</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>8</v>
       </c>
@@ -25040,7 +25039,7 @@
         <v>139.42499369973541</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>8</v>
       </c>
@@ -25066,7 +25065,7 @@
         <v>204.1307308814722</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>8</v>
       </c>
@@ -25092,7 +25091,7 @@
         <v>78.812822206762064</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>8</v>
       </c>
@@ -25118,7 +25117,7 @@
         <v>160.41131894474509</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>8</v>
       </c>
@@ -25144,7 +25143,7 @@
         <v>68.032560148808642</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>8</v>
       </c>
@@ -25170,7 +25169,7 @@
         <v>146.51015294964961</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>8</v>
       </c>
@@ -25196,7 +25195,7 @@
         <v>119.3597760107515</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>8</v>
       </c>
@@ -25222,7 +25221,7 @@
         <v>97.499816101945015</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>8</v>
       </c>
@@ -25248,7 +25247,7 @@
         <v>147.67638671430669</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>8</v>
       </c>
@@ -25274,7 +25273,7 @@
         <v>178.66313326817169</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>8</v>
       </c>
@@ -25300,7 +25299,7 @@
         <v>170.78672459960481</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>8</v>
       </c>
@@ -25326,7 +25325,7 @@
         <v>146.59309973690361</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>8</v>
       </c>
@@ -25352,7 +25351,7 @@
         <v>85.607821169730869</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>8</v>
       </c>
@@ -25378,7 +25377,7 @@
         <v>192.7307505300457</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>8</v>
       </c>
@@ -25404,7 +25403,7 @@
         <v>99.201828348731567</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>8</v>
       </c>
@@ -25430,7 +25429,7 @@
         <v>114.362927781168</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>8</v>
       </c>
@@ -25456,7 +25455,7 @@
         <v>161.62277657218311</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>8</v>
       </c>
@@ -25482,7 +25481,7 @@
         <v>150.92050655921071</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>8</v>
       </c>
@@ -25508,7 +25507,7 @@
         <v>107.6202014128063</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>8</v>
       </c>
@@ -25534,7 +25533,7 @@
         <v>65.344221237017138</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>8</v>
       </c>
@@ -25560,7 +25559,7 @@
         <v>144.53300441256221</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>8</v>
       </c>
@@ -25586,7 +25585,7 @@
         <v>60.987420766447499</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>8</v>
       </c>
@@ -25612,7 +25611,7 @@
         <v>37.281717114234873</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>8</v>
       </c>
@@ -25638,7 +25637,7 @@
         <v>94.294768417273104</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>8</v>
       </c>
@@ -25664,7 +25663,7 @@
         <v>87.633293216099901</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>8</v>
       </c>
@@ -25690,7 +25689,7 @@
         <v>121.61721452956709</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>8</v>
       </c>
@@ -25716,7 +25715,7 @@
         <v>202.20571293445789</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>8</v>
       </c>
@@ -25742,7 +25741,7 @@
         <v>108.33294330961169</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>8</v>
       </c>
@@ -25768,7 +25767,7 @@
         <v>78.639518982563629</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>8</v>
       </c>
@@ -25794,7 +25793,7 @@
         <v>81.264452664084473</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>8</v>
       </c>
@@ -25820,7 +25819,7 @@
         <v>112.8131156365158</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>8</v>
       </c>
@@ -25846,7 +25845,7 @@
         <v>51.919440663394987</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>8</v>
       </c>
@@ -25872,7 +25871,7 @@
         <v>113.74225980253441</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>8</v>
       </c>
@@ -25898,7 +25897,7 @@
         <v>85.058650686454271</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>8</v>
       </c>
@@ -25924,7 +25923,7 @@
         <v>96.552669058849503</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>8</v>
       </c>
@@ -25950,7 +25949,7 @@
         <v>185.54120406862259</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>8</v>
       </c>
@@ -25976,7 +25975,7 @@
         <v>216.92051418051429</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>8</v>
       </c>
@@ -26002,7 +26001,7 @@
         <v>112.3062134631609</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>8</v>
       </c>
@@ -26028,7 +26027,7 @@
         <v>110.6516495745322</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>8</v>
       </c>
@@ -26054,7 +26053,7 @@
         <v>109.4516987051552</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>8</v>
       </c>
@@ -26080,7 +26079,7 @@
         <v>171.83170425334691</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>8</v>
       </c>
@@ -26106,7 +26105,7 @@
         <v>101.5697498793761</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>8</v>
       </c>
@@ -26132,7 +26131,7 @@
         <v>112.6586919281887</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>8</v>
       </c>
@@ -26158,7 +26157,7 @@
         <v>79.02551750351941</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>8</v>
       </c>
@@ -26184,7 +26183,7 @@
         <v>89.541038501655009</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>8</v>
       </c>
@@ -26210,7 +26209,7 @@
         <v>34.832244150693022</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>8</v>
       </c>
@@ -26236,7 +26235,7 @@
         <v>223.57757742704689</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>8</v>
       </c>
@@ -26262,7 +26261,7 @@
         <v>92.727189207076961</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>8</v>
       </c>
@@ -26288,7 +26287,7 @@
         <v>192.82817564133879</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>8</v>
       </c>
@@ -26314,7 +26313,7 @@
         <v>152.78240913533901</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>8</v>
       </c>
@@ -26340,7 +26339,7 @@
         <v>92.489268490112522</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>8</v>
       </c>
@@ -26366,7 +26365,7 @@
         <v>131.45661427100359</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>8</v>
       </c>
@@ -26392,7 +26391,7 @@
         <v>176.15556883201921</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>8</v>
       </c>
@@ -26418,7 +26417,7 @@
         <v>112.4345128641181</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>8</v>
       </c>
@@ -26444,7 +26443,7 @@
         <v>115.14848987504919</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>8</v>
       </c>
@@ -26470,7 +26469,7 @@
         <v>181.5666132930879</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>8</v>
       </c>
@@ -26496,7 +26495,7 @@
         <v>137.16941603023261</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A883" t="s">
         <v>8</v>
       </c>
@@ -26522,7 +26521,7 @@
         <v>89.237871184639971</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A884" t="s">
         <v>8</v>
       </c>
@@ -26548,7 +26547,7 @@
         <v>152.54892471129949</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A885" t="s">
         <v>8</v>
       </c>
@@ -26574,7 +26573,7 @@
         <v>125.97800736381291</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
         <v>8</v>
       </c>
@@ -26600,7 +26599,7 @@
         <v>88.311040968063111</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
         <v>8</v>
       </c>
@@ -26626,7 +26625,7 @@
         <v>82.776128414036322</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
         <v>8</v>
       </c>
@@ -26652,7 +26651,7 @@
         <v>99.797774894344997</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
         <v>8</v>
       </c>
@@ -26678,7 +26677,7 @@
         <v>65.376313117339336</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
         <v>8</v>
       </c>
@@ -26704,7 +26703,7 @@
         <v>102.7128033613883</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
         <v>8</v>
       </c>
@@ -26730,7 +26729,7 @@
         <v>137.396421538081</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
         <v>8</v>
       </c>
@@ -26756,7 +26755,7 @@
         <v>82.664064870083877</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
         <v>8</v>
       </c>
@@ -26782,7 +26781,7 @@
         <v>161.9648791150583</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
         <v>8</v>
       </c>
@@ -26808,7 +26807,7 @@
         <v>99.759673900031629</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
         <v>8</v>
       </c>
@@ -26834,7 +26833,7 @@
         <v>36.078585444515262</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
         <v>8</v>
       </c>
@@ -26860,7 +26859,7 @@
         <v>128.8592920565622</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
         <v>8</v>
       </c>
@@ -26886,7 +26885,7 @@
         <v>149.80736838231121</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A898" t="s">
         <v>8</v>
       </c>
@@ -26912,7 +26911,7 @@
         <v>128.80257450657521</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A899" t="s">
         <v>8</v>
       </c>
@@ -26938,7 +26937,7 @@
         <v>158.28707008475149</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A900" t="s">
         <v>8</v>
       </c>
@@ -26964,7 +26963,7 @@
         <v>66.11714506023209</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A901" t="s">
         <v>8</v>
       </c>
@@ -26990,7 +26989,7 @@
         <v>160.67107345043459</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
         <v>8</v>
       </c>
@@ -27016,7 +27015,7 @@
         <v>97.735435833623995</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
         <v>8</v>
       </c>
@@ -27042,7 +27041,7 @@
         <v>36.162129674585302</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A904" t="s">
         <v>8</v>
       </c>
@@ -27068,7 +27067,7 @@
         <v>61.714213787339979</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A905" t="s">
         <v>8</v>
       </c>
@@ -27094,7 +27093,7 @@
         <v>20.433065268580599</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A906" t="s">
         <v>8</v>
       </c>
@@ -27120,7 +27119,7 @@
         <v>139.8658342296975</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A907" t="s">
         <v>8</v>
       </c>
@@ -27146,7 +27145,7 @@
         <v>121.5578809325563</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A908" t="s">
         <v>8</v>
       </c>
@@ -27172,7 +27171,7 @@
         <v>128.20706069270861</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
         <v>8</v>
       </c>
@@ -27198,7 +27197,7 @@
         <v>131.50768657579519</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
         <v>8</v>
       </c>
@@ -27224,7 +27223,7 @@
         <v>58.319860941483753</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A911" t="s">
         <v>8</v>
       </c>
@@ -27250,7 +27249,7 @@
         <v>104.5181610382201</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A912" t="s">
         <v>8</v>
       </c>
@@ -27276,7 +27275,7 @@
         <v>120.9866246648852</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A913" t="s">
         <v>8</v>
       </c>
@@ -27302,7 +27301,7 @@
         <v>154.47469258575109</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
         <v>8</v>
       </c>
@@ -27328,7 +27327,7 @@
         <v>102.0036580855943</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
         <v>8</v>
       </c>
@@ -27354,7 +27353,7 @@
         <v>153.16317025800919</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
         <v>8</v>
       </c>
@@ -27380,7 +27379,7 @@
         <v>184.95050984683741</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
         <v>8</v>
       </c>
@@ -27406,7 +27405,7 @@
         <v>130.3422658531027</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
         <v>8</v>
       </c>
@@ -27432,7 +27431,7 @@
         <v>113.4790754708566</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
         <v>8</v>
       </c>
@@ -27458,7 +27457,7 @@
         <v>75.276558260639945</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
         <v>8</v>
       </c>
@@ -27484,7 +27483,7 @@
         <v>96.876332907378668</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
         <v>8</v>
       </c>
@@ -27510,7 +27509,7 @@
         <v>141.4860237825234</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
         <v>8</v>
       </c>
@@ -27536,7 +27535,7 @@
         <v>119.5555107425251</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
         <v>8</v>
       </c>
@@ -27562,7 +27561,7 @@
         <v>110.3481706033004</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
         <v>8</v>
       </c>
@@ -27588,7 +27587,7 @@
         <v>33.629615833852533</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
         <v>8</v>
       </c>
@@ -27614,7 +27613,7 @@
         <v>142.40577236388469</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
         <v>8</v>
       </c>
@@ -27640,7 +27639,7 @@
         <v>105.7798944908625</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
         <v>8</v>
       </c>
@@ -27666,7 +27665,7 @@
         <v>66.276629511578591</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
         <v>8</v>
       </c>
@@ -27692,7 +27691,7 @@
         <v>82.718770255597846</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
         <v>8</v>
       </c>
@@ -27718,7 +27717,7 @@
         <v>116.177586705148</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
         <v>8</v>
       </c>
@@ -27744,7 +27743,7 @@
         <v>35.141200311132273</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
         <v>8</v>
       </c>
@@ -27770,7 +27769,7 @@
         <v>106.9950667953256</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
         <v>8</v>
       </c>
@@ -27796,7 +27795,7 @@
         <v>131.6312727595199</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
         <v>8</v>
       </c>
@@ -27822,7 +27821,7 @@
         <v>161.43328419376931</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
         <v>8</v>
       </c>
@@ -27848,7 +27847,7 @@
         <v>115.6351703565162</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
         <v>8</v>
       </c>
@@ -27874,7 +27873,7 @@
         <v>198.4445360721659</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
         <v>8</v>
       </c>
@@ -27900,7 +27899,7 @@
         <v>156.33527461644641</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
         <v>8</v>
       </c>
@@ -27926,7 +27925,7 @@
         <v>137.57592977372209</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
         <v>8</v>
       </c>
@@ -27952,7 +27951,7 @@
         <v>205.1943810674108</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
         <v>8</v>
       </c>
@@ -27978,7 +27977,7 @@
         <v>61.584118653151783</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
         <v>8</v>
       </c>
@@ -28004,7 +28003,7 @@
         <v>119.3030387984043</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
         <v>8</v>
       </c>
@@ -28030,7 +28029,7 @@
         <v>149.26949954719689</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
         <v>8</v>
       </c>
@@ -28056,7 +28055,7 @@
         <v>48.650576527669102</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
         <v>8</v>
       </c>
@@ -28082,7 +28081,7 @@
         <v>40.991854864026443</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
         <v>8</v>
       </c>
@@ -28108,7 +28107,7 @@
         <v>155.3209001318092</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
         <v>8</v>
       </c>
@@ -28134,7 +28133,7 @@
         <v>155.23333270984219</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
         <v>8</v>
       </c>
@@ -28160,7 +28159,7 @@
         <v>118.8539097628453</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
         <v>8</v>
       </c>
@@ -28186,7 +28185,7 @@
         <v>99.054864169018742</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
         <v>8</v>
       </c>
@@ -28212,7 +28211,7 @@
         <v>131.4385265986044</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
         <v>8</v>
       </c>
@@ -28238,7 +28237,7 @@
         <v>206.23775675294189</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
         <v>8</v>
       </c>
@@ -28264,7 +28263,7 @@
         <v>25.804281102310121</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
         <v>8</v>
       </c>
@@ -28290,7 +28289,7 @@
         <v>85.660724866071575</v>
       </c>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
         <v>8</v>
       </c>
@@ -28316,7 +28315,7 @@
         <v>97.521567160167109</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
         <v>8</v>
       </c>
@@ -28342,7 +28341,7 @@
         <v>95.983599057152446</v>
       </c>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
         <v>8</v>
       </c>
@@ -28368,7 +28367,7 @@
         <v>181.11120312249071</v>
       </c>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
         <v>8</v>
       </c>
@@ -28394,7 +28393,7 @@
         <v>155.68382512337391</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
         <v>8</v>
       </c>
@@ -28420,7 +28419,7 @@
         <v>75.528814389538027</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
         <v>8</v>
       </c>
@@ -28446,7 +28445,7 @@
         <v>117.3210112780671</v>
       </c>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
         <v>8</v>
       </c>
@@ -28472,7 +28471,7 @@
         <v>77.804717085070564</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
         <v>8</v>
       </c>
@@ -28498,7 +28497,7 @@
         <v>196.68794828866029</v>
       </c>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
         <v>8</v>
       </c>
@@ -28524,7 +28523,7 @@
         <v>114.58978032956129</v>
       </c>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
         <v>8</v>
       </c>
@@ -28550,7 +28549,7 @@
         <v>161.2982383524398</v>
       </c>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A962" t="s">
         <v>8</v>
       </c>
@@ -28576,7 +28575,7 @@
         <v>173.2554299576764</v>
       </c>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A963" t="s">
         <v>8</v>
       </c>
@@ -28602,7 +28601,7 @@
         <v>97.679672549485687</v>
       </c>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A964" t="s">
         <v>8</v>
       </c>
@@ -28628,7 +28627,7 @@
         <v>147.09762162999121</v>
       </c>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A965" t="s">
         <v>8</v>
       </c>
@@ -28654,7 +28653,7 @@
         <v>114.20831796134409</v>
       </c>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A966" t="s">
         <v>8</v>
       </c>
@@ -28680,7 +28679,7 @@
         <v>104.0828164426068</v>
       </c>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
         <v>8</v>
       </c>
@@ -28706,7 +28705,7 @@
         <v>70.591374719243291</v>
       </c>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
         <v>8</v>
       </c>
@@ -28732,7 +28731,7 @@
         <v>132.89745548621181</v>
       </c>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A969" t="s">
         <v>8</v>
       </c>
@@ -28758,7 +28757,7 @@
         <v>244.2712590242258</v>
       </c>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
         <v>8</v>
       </c>
@@ -28784,7 +28783,7 @@
         <v>72.421472763805269</v>
       </c>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
         <v>8</v>
       </c>
@@ -28810,7 +28809,7 @@
         <v>119.1413694165749</v>
       </c>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
         <v>8</v>
       </c>
@@ -28836,7 +28835,7 @@
         <v>135.96032021103451</v>
       </c>
     </row>
-    <row r="973" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
         <v>8</v>
       </c>
@@ -28862,7 +28861,7 @@
         <v>178.00875512769139</v>
       </c>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A974" t="s">
         <v>8</v>
       </c>
@@ -28888,7 +28887,7 @@
         <v>160.53331549654581</v>
       </c>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
         <v>8</v>
       </c>
@@ -28914,7 +28913,7 @@
         <v>152.78386992965869</v>
       </c>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A976" t="s">
         <v>8</v>
       </c>
@@ -28940,7 +28939,7 @@
         <v>135.5435972228494</v>
       </c>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A977" t="s">
         <v>8</v>
       </c>
@@ -28966,7 +28965,7 @@
         <v>71.479289907270129</v>
       </c>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
         <v>8</v>
       </c>
@@ -28992,7 +28991,7 @@
         <v>152.91978456029611</v>
       </c>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
         <v>8</v>
       </c>
@@ -29018,7 +29017,7 @@
         <v>211.08498151644369</v>
       </c>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
         <v>8</v>
       </c>
@@ -29044,7 +29043,7 @@
         <v>162.39375712101901</v>
       </c>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A981" t="s">
         <v>8</v>
       </c>
@@ -29070,7 +29069,7 @@
         <v>240.2514773552391</v>
       </c>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A982" t="s">
         <v>8</v>
       </c>
@@ -29096,7 +29095,7 @@
         <v>129.52162539550051</v>
       </c>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
         <v>8</v>
       </c>
@@ -29122,7 +29121,7 @@
         <v>192.05657174271971</v>
       </c>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
         <v>8</v>
       </c>
@@ -29148,7 +29147,7 @@
         <v>177.20733655018751</v>
       </c>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
         <v>8</v>
       </c>
@@ -29174,7 +29173,7 @@
         <v>138.925751241001</v>
       </c>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A986" t="s">
         <v>8</v>
       </c>
@@ -29200,7 +29199,7 @@
         <v>226.26372788187399</v>
       </c>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A987" t="s">
         <v>8</v>
       </c>
@@ -29226,7 +29225,7 @@
         <v>195.1096464799468</v>
       </c>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A988" t="s">
         <v>8</v>
       </c>
@@ -29252,7 +29251,7 @@
         <v>285.78901965913491</v>
       </c>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A989" t="s">
         <v>8</v>
       </c>
@@ -29278,7 +29277,7 @@
         <v>111.0290464781277</v>
       </c>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A990" t="s">
         <v>8</v>
       </c>
@@ -29304,7 +29303,7 @@
         <v>154.34006843973609</v>
       </c>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A991" t="s">
         <v>8</v>
       </c>
@@ -29330,7 +29329,7 @@
         <v>178.10676592573409</v>
       </c>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A992" t="s">
         <v>8</v>
       </c>
@@ -29356,7 +29355,7 @@
         <v>41.335115392794883</v>
       </c>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A993" t="s">
         <v>8</v>
       </c>
@@ -29382,7 +29381,7 @@
         <v>159.78112658659921</v>
       </c>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A994" t="s">
         <v>8</v>
       </c>
@@ -29408,7 +29407,7 @@
         <v>164.64544190992001</v>
       </c>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A995" t="s">
         <v>8</v>
       </c>
@@ -29434,7 +29433,7 @@
         <v>158.06687405899791</v>
       </c>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A996" t="s">
         <v>8</v>
       </c>
@@ -29460,7 +29459,7 @@
         <v>147.74636243202181</v>
       </c>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A997" t="s">
         <v>8</v>
       </c>
@@ -29486,7 +29485,7 @@
         <v>180.53421401390301</v>
       </c>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A998" t="s">
         <v>8</v>
       </c>
@@ -29512,7 +29511,7 @@
         <v>90.625475028561965</v>
       </c>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A999" t="s">
         <v>8</v>
       </c>
@@ -29538,7 +29537,7 @@
         <v>195.79087932478109</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1000" t="s">
         <v>8</v>
       </c>
@@ -29564,7 +29563,7 @@
         <v>172.040090198917</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1001" t="s">
         <v>8</v>
       </c>
@@ -29590,7 +29589,7 @@
         <v>123.001840111318</v>
       </c>
     </row>
-    <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1002" t="s">
         <v>8</v>
       </c>
@@ -29616,7 +29615,7 @@
         <v>127.399121482011</v>
       </c>
     </row>
-    <row r="1003" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1003" t="s">
         <v>8</v>
       </c>
@@ -29642,7 +29641,7 @@
         <v>129.69762859889229</v>
       </c>
     </row>
-    <row r="1004" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1004" t="s">
         <v>8</v>
       </c>
@@ -29668,7 +29667,7 @@
         <v>190.4702165111137</v>
       </c>
     </row>
-    <row r="1005" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1005" t="s">
         <v>8</v>
       </c>
@@ -29694,7 +29693,7 @@
         <v>140.99930699514439</v>
       </c>
     </row>
-    <row r="1006" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1006" t="s">
         <v>8</v>
       </c>
@@ -29720,7 +29719,7 @@
         <v>77.28577642119167</v>
       </c>
     </row>
-    <row r="1007" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1007" t="s">
         <v>8</v>
       </c>
@@ -29746,7 +29745,7 @@
         <v>113.6280431512079</v>
       </c>
     </row>
-    <row r="1008" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1008" t="s">
         <v>8</v>
       </c>
@@ -29772,7 +29771,7 @@
         <v>27.097243703489038</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1009" t="s">
         <v>8</v>
       </c>
@@ -29798,7 +29797,7 @@
         <v>173.2467853589022</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1010" t="s">
         <v>8</v>
       </c>
@@ -29824,7 +29823,7 @@
         <v>117.3727506497698</v>
       </c>
     </row>
-    <row r="1011" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1011" t="s">
         <v>8</v>
       </c>
@@ -29850,7 +29849,7 @@
         <v>161.37280252973659</v>
       </c>
     </row>
-    <row r="1012" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1012" t="s">
         <v>8</v>
       </c>
@@ -29876,7 +29875,7 @@
         <v>131.2224059625328</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1013" t="s">
         <v>8</v>
       </c>
@@ -29902,7 +29901,7 @@
         <v>216.19022985344469</v>
       </c>
     </row>
-    <row r="1014" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1014" t="s">
         <v>8</v>
       </c>
@@ -29928,7 +29927,7 @@
         <v>169.49535820705071</v>
       </c>
     </row>
-    <row r="1015" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1015" t="s">
         <v>8</v>
       </c>
@@ -29954,7 +29953,7 @@
         <v>174.26150436519279</v>
       </c>
     </row>
-    <row r="1016" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1016" t="s">
         <v>8</v>
       </c>
@@ -29980,7 +29979,7 @@
         <v>92.184025356055855</v>
       </c>
     </row>
-    <row r="1017" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1017" t="s">
         <v>8</v>
       </c>
@@ -30006,7 +30005,7 @@
         <v>86.700260720227831</v>
       </c>
     </row>
-    <row r="1018" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1018" t="s">
         <v>8</v>
       </c>
@@ -30032,7 +30031,7 @@
         <v>115.4990260339615</v>
       </c>
     </row>
-    <row r="1019" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1019" t="s">
         <v>8</v>
       </c>
@@ -30058,7 +30057,7 @@
         <v>222.86783422633681</v>
       </c>
     </row>
-    <row r="1020" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1020" t="s">
         <v>8</v>
       </c>
@@ -30084,7 +30083,7 @@
         <v>216.0037146015141</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1021" t="s">
         <v>8</v>
       </c>
@@ -30110,7 +30109,7 @@
         <v>124.7150006066134</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1022" t="s">
         <v>8</v>
       </c>
@@ -30136,7 +30135,7 @@
         <v>180.58092896870761</v>
       </c>
     </row>
-    <row r="1023" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1023" t="s">
         <v>8</v>
       </c>
@@ -30162,7 +30161,7 @@
         <v>168.55857736248049</v>
       </c>
     </row>
-    <row r="1024" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1024" t="s">
         <v>8</v>
       </c>
@@ -30188,7 +30187,7 @@
         <v>127.4032149553242</v>
       </c>
     </row>
-    <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1025" t="s">
         <v>8</v>
       </c>
@@ -30214,7 +30213,7 @@
         <v>158.2293426481948</v>
       </c>
     </row>
-    <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1026" t="s">
         <v>8</v>
       </c>
@@ -30240,7 +30239,7 @@
         <v>81.356540854101851</v>
       </c>
     </row>
-    <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1027" t="s">
         <v>8</v>
       </c>
@@ -30266,7 +30265,7 @@
         <v>117.8490869326104</v>
       </c>
     </row>
-    <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1028" t="s">
         <v>8</v>
       </c>
@@ -30292,7 +30291,7 @@
         <v>83.297993818866615</v>
       </c>
     </row>
-    <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1029" t="s">
         <v>8</v>
       </c>
@@ -30318,7 +30317,7 @@
         <v>200.17071157913611</v>
       </c>
     </row>
-    <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1030" t="s">
         <v>8</v>
       </c>
@@ -30344,7 +30343,7 @@
         <v>100.296245945222</v>
       </c>
     </row>
-    <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1031" t="s">
         <v>8</v>
       </c>
@@ -30370,7 +30369,7 @@
         <v>218.9607415262839</v>
       </c>
     </row>
-    <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1032" t="s">
         <v>8</v>
       </c>
@@ -30396,7 +30395,7 @@
         <v>225.31902037691421</v>
       </c>
     </row>
-    <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1033" t="s">
         <v>8</v>
       </c>
@@ -30422,7 +30421,7 @@
         <v>135.44613554589381</v>
       </c>
     </row>
-    <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1034" t="s">
         <v>8</v>
       </c>
@@ -30448,7 +30447,7 @@
         <v>169.13545801758849</v>
       </c>
     </row>
-    <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1035" t="s">
         <v>8</v>
       </c>
@@ -30474,7 +30473,7 @@
         <v>163.6448993948018</v>
       </c>
     </row>
-    <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1036" t="s">
         <v>8</v>
       </c>
@@ -30500,7 +30499,7 @@
         <v>170.18948513096541</v>
       </c>
     </row>
-    <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1037" t="s">
         <v>8</v>
       </c>
@@ -30526,7 +30525,7 @@
         <v>78.270531926492538</v>
       </c>
     </row>
-    <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1038" t="s">
         <v>8</v>
       </c>
@@ -30552,7 +30551,7 @@
         <v>109.547806256538</v>
       </c>
     </row>
-    <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1039" t="s">
         <v>8</v>
       </c>
@@ -30578,7 +30577,7 @@
         <v>153.28072767282771</v>
       </c>
     </row>
-    <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1040" t="s">
         <v>8</v>
       </c>
@@ -30604,7 +30603,7 @@
         <v>186.24850779245889</v>
       </c>
     </row>
-    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1041" t="s">
         <v>8</v>
       </c>
@@ -30630,7 +30629,7 @@
         <v>167.9332145662282</v>
       </c>
     </row>
-    <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1042" t="s">
         <v>8</v>
       </c>
@@ -30656,7 +30655,7 @@
         <v>147.49690080031249</v>
       </c>
     </row>
-    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1043" t="s">
         <v>8</v>
       </c>
@@ -30682,7 +30681,7 @@
         <v>233.3029021279464</v>
       </c>
     </row>
-    <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1044" t="s">
         <v>8</v>
       </c>
@@ -30708,7 +30707,7 @@
         <v>118.93131252991</v>
       </c>
     </row>
-    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1045" t="s">
         <v>8</v>
       </c>
@@ -30734,7 +30733,7 @@
         <v>178.95791862981861</v>
       </c>
     </row>
-    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1046" t="s">
         <v>8</v>
       </c>
@@ -30760,7 +30759,7 @@
         <v>199.4747271148627</v>
       </c>
     </row>
-    <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1047" t="s">
         <v>8</v>
       </c>
@@ -30786,7 +30785,7 @@
         <v>108.06878476657479</v>
       </c>
     </row>
-    <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1048" t="s">
         <v>8</v>
       </c>
@@ -30812,7 +30811,7 @@
         <v>167.6000963198143</v>
       </c>
     </row>
-    <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1049" t="s">
         <v>8</v>
       </c>
